--- a/new original/_Lang_Chinese/Lang/CN/Game/Calc.xlsx
+++ b/new original/_Lang_Chinese/Lang/CN/Game/Calc.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.252</t>
+    <t xml:space="preserve">EA 23.260</t>
   </si>
   <si>
     <t xml:space="preserve">SpHero</t>

--- a/new original/_Lang_Chinese/Lang/CN/Game/Calc.xlsx
+++ b/new original/_Lang_Chinese/Lang/CN/Game/Calc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="53">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -26,7 +26,7 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.260</t>
+    <t xml:space="preserve">EA 23.267</t>
   </si>
   <si>
     <t xml:space="preserve">SpHero</t>
@@ -68,6 +68,9 @@
     <t xml:space="preserve">sword_</t>
   </si>
   <si>
+    <t xml:space="preserve">SpTelekinesis</t>
+  </si>
+  <si>
     <t xml:space="preserve">SpMoonArrow</t>
   </si>
   <si>
@@ -150,6 +153,9 @@
   </si>
   <si>
     <t xml:space="preserve">EA 23.117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.264</t>
   </si>
   <si>
     <t xml:space="preserve">EA 23.202</t>
@@ -249,7 +255,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -257,7 +263,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -265,7 +271,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -273,7 +279,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -281,7 +287,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
@@ -289,7 +295,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
@@ -297,7 +303,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -305,7 +311,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -313,7 +319,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
@@ -321,7 +327,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -329,7 +335,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -337,7 +343,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -345,7 +351,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
@@ -353,7 +359,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17">
@@ -361,7 +367,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
@@ -369,7 +375,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -377,7 +383,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
@@ -385,7 +391,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
@@ -393,7 +399,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22">
@@ -401,7 +407,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
@@ -409,7 +415,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
@@ -417,7 +423,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
@@ -425,7 +431,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -433,7 +439,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
@@ -441,7 +447,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28">
@@ -449,7 +455,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29">
@@ -457,7 +463,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
@@ -465,7 +471,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -481,7 +487,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33">
@@ -489,7 +495,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34">
@@ -497,7 +503,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35">
@@ -513,7 +519,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
@@ -521,7 +527,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38">
@@ -529,7 +535,15 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
